--- a/public/plantillas_satisfaccion/indicadores-tasas.xlsx
+++ b/public/plantillas_satisfaccion/indicadores-tasas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FACULTAD DE TEOLOGÍA</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>PRINCIPALES TASAS E INDICADORES</t>
-  </si>
-  <si>
-    <t>TASAS CORRESPONDIENTES A LA COHORTE 2014-2018</t>
   </si>
   <si>
     <t xml:space="preserve">Tasa de Graduación </t>
@@ -326,43 +323,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,8 +707,8 @@
   </sheetPr>
   <dimension ref="B4:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,19 +717,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="3"/>
@@ -746,156 +743,154 @@
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="2:11" ht="21" x14ac:dyDescent="0.3">
@@ -941,107 +936,107 @@
       <c r="B39" s="9"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="22" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="22" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B18:K18"/>
     <mergeCell ref="B40:K40"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B45:K45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" display="mailto:secretaria@ftuebe.es"/>
